--- a/ex_cat_dog/cm_cnn.xlsx
+++ b/ex_cat_dog/cm_cnn.xlsx
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ex_cat_dog/cm_cnn.xlsx
+++ b/ex_cat_dog/cm_cnn.xlsx
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
